--- a/hardware/pcb/Board_1_Eagle/Bestellung 28_03_2018/Mängelliste.xlsx
+++ b/hardware/pcb/Board_1_Eagle/Bestellung 28_03_2018/Mängelliste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Botton-Beschriftung</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Transistoren sind scheisse</t>
+  </si>
+  <si>
+    <t>MUX freihängend</t>
   </si>
 </sst>
 </file>
@@ -851,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.55000000000000004"/>
@@ -883,6 +886,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
